--- a/biology/Médecine/Nerf_labial_postérieur/Nerf_labial_postérieur.xlsx
+++ b/biology/Médecine/Nerf_labial_postérieur/Nerf_labial_postérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_labial_post%C3%A9rieur</t>
+          <t>Nerf_labial_postérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs labiaux postérieurs sont des nerfs sensitifs qui font partie des nerfs périnéaux chez la femme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_labial_post%C3%A9rieur</t>
+          <t>Nerf_labial_postérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nerfs labiaux postérieurs sont les ramifications du rameau superficiel périnéal.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_labial_post%C3%A9rieur</t>
+          <t>Nerf_labial_postérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rameau superficiel périnéal se ramifie après sa sortie du canal pudendal. Ils traversent l'aponévrose du diaphragme urogénital et se répartissent dans la peau des grandes lèvres.
 Ils sont accompagnés des branches labiales de l'artère périnéale.
